--- a/sample/Copy of catwalk_cfa_vs_pH4-saline_pilot_TrialStatistics.xlsx
+++ b/sample/Copy of catwalk_cfa_vs_pH4-saline_pilot_TrialStatistics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregoryn\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsg/PycharmProjects/CAT/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B93FD1-A8A9-9A46-96A7-A0F2E80481A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="6804"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30360" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrialStatistics" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="417">
   <si>
     <t>Experiment</t>
   </si>
@@ -1258,13 +1259,25 @@
   </si>
   <si>
     <t>Trial0028</t>
+  </si>
+  <si>
+    <t>vF_base</t>
+  </si>
+  <si>
+    <t>vf_post</t>
+  </si>
+  <si>
+    <t>twz_base</t>
+  </si>
+  <si>
+    <t>twz_Post</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1273,6 +1286,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1283,10 +1304,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1295,9 +1327,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1577,33 +1612,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NO15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:NS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="NP1" sqref="NP1:NS31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:379">
+    <row r="1" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,8 +2777,20 @@
       <c r="NO1" s="1" t="s">
         <v>378</v>
       </c>
+      <c r="NP1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="NQ1" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="NR1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="NS1" s="2" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="2" spans="1:379">
+    <row r="2" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>379</v>
       </c>
@@ -3880,8 +3928,20 @@
       <c r="NO2">
         <v>4.8275862068965498</v>
       </c>
+      <c r="NP2">
+        <v>1.6387775280410732</v>
+      </c>
+      <c r="NQ2">
+        <v>0.21124381397101202</v>
+      </c>
+      <c r="NR2">
+        <v>1282.6666666666667</v>
+      </c>
+      <c r="NS2">
+        <v>1053.7333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:379">
+    <row r="3" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>379</v>
       </c>
@@ -5019,8 +5079,20 @@
       <c r="NO3">
         <v>1.14942528735632</v>
       </c>
+      <c r="NP3">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ3">
+        <v>0.59415806973494245</v>
+      </c>
+      <c r="NR3">
+        <v>1287.3333333333333</v>
+      </c>
+      <c r="NS3">
+        <v>1535.1333333333332</v>
+      </c>
     </row>
-    <row r="4" spans="1:379">
+    <row r="4" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>379</v>
       </c>
@@ -6158,8 +6230,20 @@
       <c r="NO4">
         <v>4.1284403669724803</v>
       </c>
+      <c r="NP4">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ4">
+        <v>14.113606345717653</v>
+      </c>
+      <c r="NR4">
+        <v>1367</v>
+      </c>
+      <c r="NS4">
+        <v>1415.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:379">
+    <row r="5" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -7297,8 +7381,20 @@
       <c r="NO5">
         <v>7.1428571428571397</v>
       </c>
+      <c r="NP5">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ5">
+        <v>0.23006258751771844</v>
+      </c>
+      <c r="NR5">
+        <v>1498.6666666666667</v>
+      </c>
+      <c r="NS5">
+        <v>1409.3333333333333</v>
+      </c>
     </row>
-    <row r="6" spans="1:379">
+    <row r="6" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -8436,8 +8532,20 @@
       <c r="NO6">
         <v>1.2931034482758601</v>
       </c>
+      <c r="NP6">
+        <v>0.73705517533793463</v>
+      </c>
+      <c r="NQ6">
+        <v>1.6387775280410732</v>
+      </c>
+      <c r="NR6">
+        <v>1320.3333333333333</v>
+      </c>
+      <c r="NS6">
+        <v>1467.7333333333336</v>
+      </c>
     </row>
-    <row r="7" spans="1:379">
+    <row r="7" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>379</v>
       </c>
@@ -9575,8 +9683,20 @@
       <c r="NO7">
         <v>5.5194805194805197</v>
       </c>
+      <c r="NP7">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ7">
+        <v>5.2341239136964632E-2</v>
+      </c>
+      <c r="NR7">
+        <v>1389.6666666666667</v>
+      </c>
+      <c r="NS7">
+        <v>1380.4666666666665</v>
+      </c>
     </row>
-    <row r="8" spans="1:379">
+    <row r="8" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>379</v>
       </c>
@@ -10714,8 +10834,20 @@
       <c r="NO8">
         <v>4.1509433962264204</v>
       </c>
+      <c r="NP8">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ8">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NR8">
+        <v>1374.6666666666667</v>
+      </c>
+      <c r="NS8">
+        <v>1441.1333333333332</v>
+      </c>
     </row>
-    <row r="9" spans="1:379">
+    <row r="9" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>379</v>
       </c>
@@ -11853,8 +11985,20 @@
       <c r="NO9">
         <v>5.81395348837209</v>
       </c>
+      <c r="NP9">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ9">
+        <v>3.2623007803648997E-2</v>
+      </c>
+      <c r="NR9">
+        <v>1491.3333333333333</v>
+      </c>
+      <c r="NS9">
+        <v>1499.6666666666667</v>
+      </c>
     </row>
-    <row r="10" spans="1:379">
+    <row r="10" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -12992,8 +13136,20 @@
       <c r="NO10">
         <v>4.2918454935622297</v>
       </c>
+      <c r="NP10">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ10">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NR10">
+        <v>1304.3333333333333</v>
+      </c>
+      <c r="NS10">
+        <v>1457.8666666666668</v>
+      </c>
     </row>
-    <row r="11" spans="1:379">
+    <row r="11" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -14131,8 +14287,20 @@
       <c r="NO11">
         <v>5.8035714285714297</v>
       </c>
+      <c r="NP11">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ11">
+        <v>3.2623007803648997E-2</v>
+      </c>
+      <c r="NR11">
+        <v>1397</v>
+      </c>
+      <c r="NS11">
+        <v>1444.0666666666666</v>
+      </c>
     </row>
-    <row r="12" spans="1:379">
+    <row r="12" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>379</v>
       </c>
@@ -15270,8 +15438,20 @@
       <c r="NO12">
         <v>4.19161676646707</v>
       </c>
+      <c r="NP12">
+        <v>0.9679122803768363</v>
+      </c>
+      <c r="NQ12">
+        <v>0.35141961611845968</v>
+      </c>
+      <c r="NR12">
+        <v>1358.6666666666667</v>
+      </c>
+      <c r="NS12">
+        <v>1477.9333333333334</v>
+      </c>
     </row>
-    <row r="13" spans="1:379">
+    <row r="13" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>379</v>
       </c>
@@ -16409,8 +16589,20 @@
       <c r="NO13">
         <v>2.8985507246376798</v>
       </c>
+      <c r="NP13">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ13">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NR13">
+        <v>1250.6666666666667</v>
+      </c>
+      <c r="NS13">
+        <v>1322.4666666666667</v>
+      </c>
     </row>
-    <row r="14" spans="1:379">
+    <row r="14" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>379</v>
       </c>
@@ -17548,8 +17740,20 @@
       <c r="NO14">
         <v>1.89393939393939</v>
       </c>
+      <c r="NP14">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ14">
+        <v>0.47445824709476037</v>
+      </c>
+      <c r="NR14">
+        <v>1289.3333333333333</v>
+      </c>
+      <c r="NS14">
+        <v>705.99900000000014</v>
+      </c>
     </row>
-    <row r="15" spans="1:379">
+    <row r="15" spans="1:383" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>379</v>
       </c>
@@ -18686,6 +18890,242 @@
       </c>
       <c r="NO15">
         <v>2.1739130434782599</v>
+      </c>
+      <c r="NP15">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ15">
+        <v>0.23006258751771844</v>
+      </c>
+      <c r="NR15">
+        <v>1518.3333333333333</v>
+      </c>
+      <c r="NS15">
+        <v>827.19966666666676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:383" x14ac:dyDescent="0.2">
+      <c r="NP16">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ16">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NR16">
+        <v>1249.3333333333333</v>
+      </c>
+      <c r="NS16">
+        <v>1395.5333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP17">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ17">
+        <v>0.13829675820744833</v>
+      </c>
+      <c r="NR17">
+        <v>1347.3333333333333</v>
+      </c>
+      <c r="NS17">
+        <v>1436.3333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP18">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ18">
+        <v>0.43035415463817106</v>
+      </c>
+      <c r="NR18">
+        <v>1317.6666666666667</v>
+      </c>
+      <c r="NS18">
+        <v>1422.3999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP19">
+        <v>1.6387775280410732</v>
+      </c>
+      <c r="NQ19">
+        <v>0.31770935289158281</v>
+      </c>
+      <c r="NR19">
+        <v>1422.3333333333333</v>
+      </c>
+      <c r="NS19">
+        <v>680.13333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP20">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ20">
+        <v>9.6695441348575106E-2</v>
+      </c>
+      <c r="NR20">
+        <v>1310</v>
+      </c>
+      <c r="NS20">
+        <v>920.13299999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP21">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ21">
+        <v>0.23006258751771844</v>
+      </c>
+      <c r="NR21">
+        <v>1361.3333333333333</v>
+      </c>
+      <c r="NS21">
+        <v>916.53300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP22">
+        <v>1.3072600822108704</v>
+      </c>
+      <c r="NQ22">
+        <v>0.16323451755598897</v>
+      </c>
+      <c r="NR22">
+        <v>1348.3333333333333</v>
+      </c>
+      <c r="NS22">
+        <v>701.86599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP23">
+        <v>1.6401138649474998</v>
+      </c>
+      <c r="NQ23">
+        <v>2.1094051403705829</v>
+      </c>
+      <c r="NR23">
+        <v>1477.3333333333333</v>
+      </c>
+      <c r="NS23">
+        <v>1194.8</v>
+      </c>
+    </row>
+    <row r="24" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP24">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NQ24">
+        <v>0.13829675820744833</v>
+      </c>
+      <c r="NR24">
+        <v>1432.6666666666667</v>
+      </c>
+      <c r="NS24">
+        <v>1379.6000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP25">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ25">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NR25">
+        <v>1408.6666666666667</v>
+      </c>
+      <c r="NS25">
+        <v>1380.3333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP26">
+        <v>1.0691139590109626</v>
+      </c>
+      <c r="NQ26">
+        <v>0.16323451755598897</v>
+      </c>
+      <c r="NR26">
+        <v>1316.3333333333333</v>
+      </c>
+      <c r="NS26">
+        <v>710.4663333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP27">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ27">
+        <v>3.2623007803648997E-2</v>
+      </c>
+      <c r="NR27">
+        <v>1475.6666666666667</v>
+      </c>
+      <c r="NS27">
+        <v>1328.6000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP28">
+        <v>1.6387775280410732</v>
+      </c>
+      <c r="NQ28">
+        <v>1.1051926805082766</v>
+      </c>
+      <c r="NR28">
+        <v>1325.6666666666667</v>
+      </c>
+      <c r="NS28">
+        <v>1402.6666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP29">
+        <v>1.8185782807060205</v>
+      </c>
+      <c r="NQ29">
+        <v>6.619055155379544E-2</v>
+      </c>
+      <c r="NR29">
+        <v>1350.3333333333333</v>
+      </c>
+      <c r="NS29">
+        <v>1255.6000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP30">
+        <v>0.9679122803768363</v>
+      </c>
+      <c r="NQ30">
+        <v>0.3267187057394812</v>
+      </c>
+      <c r="NR30">
+        <v>1321</v>
+      </c>
+      <c r="NS30">
+        <v>940.99966666666671</v>
+      </c>
+    </row>
+    <row r="31" spans="380:383" x14ac:dyDescent="0.2">
+      <c r="NP31">
+        <v>1.4113606345717664</v>
+      </c>
+      <c r="NQ31">
+        <v>9.6695441348575106E-2</v>
+      </c>
+      <c r="NR31">
+        <v>1508.3333333333333</v>
+      </c>
+      <c r="NS31">
+        <v>918.66666666666663</v>
       </c>
     </row>
   </sheetData>
